--- a/ValueSet-covid19-complications.xlsx
+++ b/ValueSet-covid19-complications.xlsx
@@ -117,10 +117,10 @@
     <t>For resuscitation (finding)</t>
   </si>
   <si>
-    <t>235859005:246112005=386134007</t>
-  </si>
-  <si>
-    <t>Liver disorder due to infection where Severity = Significant</t>
+    <t>235859005</t>
+  </si>
+  <si>
+    <t>Liver disorder due to infection</t>
   </si>
   <si>
     <t>230431001</t>

--- a/ValueSet-covid19-complications.xlsx
+++ b/ValueSet-covid19-complications.xlsx
@@ -120,7 +120,7 @@
     <t>235859005</t>
   </si>
   <si>
-    <t>Liver disorder due to infection</t>
+    <t>Liver disorder due to infection (disorder)</t>
   </si>
   <si>
     <t>230431001</t>
